--- a/Absensi.xlsx
+++ b/Absensi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Batch 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951CA2A7-DD23-480E-BE87-D3E7CC04F5FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46515529-8AB9-4577-B7FC-156A8973A152}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{02F3E0E0-C4C2-49A4-BBB5-DD170D6895B0}"/>
   </bookViews>
@@ -148,7 +148,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,19 +175,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="7"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -241,19 +228,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -572,7 +557,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,22 +570,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="6">
-        <v>1</v>
-      </c>
-      <c r="E1" s="6">
-        <v>2</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="D1" s="5">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>34</v>
       </c>
       <c r="G1" s="3"/>
@@ -609,23 +594,23 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3">
-        <f>SUM(D2:E2)</f>
-        <v>2</v>
-      </c>
-      <c r="G2" s="3" t="str">
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
+        <f t="shared" ref="F2:F17" si="0">SUM(D2:E2)</f>
+        <v>2</v>
+      </c>
+      <c r="G2" s="4" t="str">
         <f>IF(F2=0,"Keluarkan",IF(F2=1,"Dlm Pengawasan","OK"))</f>
         <v>OK</v>
       </c>
@@ -634,24 +619,24 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
-        <f>SUM(D3:E3)</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="5" t="str">
-        <f t="shared" ref="G3:G17" si="0">IF(F3=0,"Keluarkan",IF(F3=1,"Dlm Pengawasan","OK"))</f>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G3" s="4" t="str">
+        <f t="shared" ref="G3:G17" si="1">IF(F3=0,"Keluarkan",IF(F3=1,"Dlm Pengawasan","OK"))</f>
         <v>Keluarkan</v>
       </c>
     </row>
@@ -672,11 +657,11 @@
         <v>1</v>
       </c>
       <c r="F4" s="3">
-        <f>SUM(D4:E4)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G4" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
@@ -697,11 +682,11 @@
         <v>1</v>
       </c>
       <c r="F5" s="3">
-        <f>SUM(D5:E5)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G5" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
@@ -722,11 +707,11 @@
         <v>1</v>
       </c>
       <c r="F6" s="3">
-        <f>SUM(D6:E6)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G6" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
@@ -734,24 +719,24 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="4">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <f>SUM(D7:E7)</f>
-        <v>1</v>
-      </c>
-      <c r="G7" s="8" t="str">
-        <f t="shared" si="0"/>
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>Dlm Pengawasan</v>
       </c>
       <c r="I7" s="1"/>
@@ -760,24 +745,24 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <f>SUM(D8:E8)</f>
-        <v>1</v>
-      </c>
-      <c r="G8" s="8" t="str">
-        <f t="shared" si="0"/>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G8" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>Dlm Pengawasan</v>
       </c>
       <c r="I8" s="1"/>
@@ -786,21 +771,21 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3"/>
+      <c r="B9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4"/>
       <c r="D9" s="7">
         <v>0</v>
       </c>
       <c r="E9" s="7">
         <v>0</v>
       </c>
-      <c r="F9" s="3">
-        <f>SUM(D9:E9)</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="9" t="s">
+      <c r="F9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -821,11 +806,11 @@
         <v>1</v>
       </c>
       <c r="F10" s="3">
-        <f>SUM(D10:E10)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G10" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
@@ -846,11 +831,11 @@
         <v>0</v>
       </c>
       <c r="F11" s="2">
-        <f>SUM(D11:E11)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>Keluarkan</v>
       </c>
     </row>
@@ -871,11 +856,11 @@
         <v>1</v>
       </c>
       <c r="F12" s="3">
-        <f>SUM(D12:E12)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G12" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
@@ -883,24 +868,24 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3">
-        <f>SUM(D13:E13)</f>
-        <v>2</v>
-      </c>
-      <c r="G13" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G13" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
@@ -908,24 +893,24 @@
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
-        <f>SUM(D14:E14)</f>
-        <v>2</v>
-      </c>
-      <c r="G14" s="9" t="str">
-        <f t="shared" si="0"/>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G14" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
@@ -946,11 +931,11 @@
         <v>1</v>
       </c>
       <c r="F15" s="3">
-        <f>SUM(D15:E15)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G15" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="I15" s="1"/>
@@ -959,24 +944,24 @@
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="5">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0</v>
-      </c>
-      <c r="F16" s="5">
-        <f>SUM(D16:E16)</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>Keluarkan</v>
       </c>
     </row>
@@ -997,11 +982,11 @@
         <v>1</v>
       </c>
       <c r="F17" s="3">
-        <f>SUM(D17:E17)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G17" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OK</v>
       </c>
     </row>
